--- a/06_onboarding/events_crawling/tables.xlsx
+++ b/06_onboarding/events_crawling/tables.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="164">
   <si>
     <t>테이블명</t>
   </si>
@@ -524,20 +524,23 @@
     <t>정보 저장 된 날짜</t>
   </si>
   <si>
+    <t>정보 업데이트 된 날짜</t>
+  </si>
+  <si>
     <t>crawling_info</t>
   </si>
   <si>
     <t>크롤링 데이터 정보</t>
   </si>
   <si>
-    <t>0 = 크롤링 된 행사정보, 1 = 서비스에 적용</t>
+    <t>0 = 크롤링 된 행사정보, 1 = 서비스에 적용, 2 = 행사정보 업데이트</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -558,12 +561,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -698,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -715,25 +712,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -747,43 +735,25 @@
     <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -792,8 +762,14 @@
     <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1203,20 +1179,20 @@
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1236,22 +1212,22 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1279,19 +1255,19 @@
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -1316,7 +1292,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1325,13 +1301,13 @@
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1359,19 +1335,19 @@
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1399,22 +1375,22 @@
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="1"/>
@@ -1439,22 +1415,22 @@
       <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="1"/>
@@ -1479,22 +1455,22 @@
       <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="1"/>
@@ -1519,22 +1495,22 @@
       <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K14" s="1"/>
@@ -1556,25 +1532,25 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="11" t="s">
         <v>50</v>
       </c>
       <c r="K15" s="1"/>
@@ -1599,22 +1575,22 @@
       <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K16" s="1"/>
@@ -1639,22 +1615,22 @@
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K17" s="1"/>
@@ -1679,22 +1655,22 @@
       <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K18" s="1"/>
@@ -1719,22 +1695,22 @@
       <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K19" s="1"/>
@@ -1759,22 +1735,22 @@
       <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K20" s="1"/>
@@ -1796,25 +1772,25 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K21" s="1"/>
@@ -1836,25 +1812,25 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K22" s="1"/>
@@ -1876,25 +1852,25 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="K23" s="1"/>
@@ -1916,25 +1892,25 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K24" s="1"/>
@@ -1956,25 +1932,25 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K25" s="1"/>
@@ -1996,25 +1972,25 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="7" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="8" t="s">
         <v>82</v>
       </c>
       <c r="K26" s="1"/>
@@ -2039,27 +2015,27 @@
       <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>1.0</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="15" t="s">
         <v>86</v>
       </c>
       <c r="L27" s="1"/>
@@ -2083,24 +2059,24 @@
       <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>1.0</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="8" t="s">
         <v>89</v>
       </c>
       <c r="K28" s="1"/>
@@ -2122,25 +2098,25 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="8" t="s">
         <v>93</v>
       </c>
       <c r="K29" s="1"/>
@@ -2162,25 +2138,25 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="8" t="s">
         <v>97</v>
       </c>
       <c r="K30" s="1"/>
@@ -2202,25 +2178,25 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18" t="s">
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="14" t="s">
         <v>100</v>
       </c>
       <c r="K31" s="1"/>
@@ -2242,25 +2218,25 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18" t="s">
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="14" t="s">
         <v>103</v>
       </c>
       <c r="K32" s="1"/>
@@ -2282,25 +2258,25 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="23" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="23" t="s">
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="14" t="s">
         <v>106</v>
       </c>
       <c r="K33" s="1"/>
@@ -2364,7 +2340,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="25"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2392,7 +2368,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="25"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2504,31 +2480,31 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K40" s="1"/>
@@ -2550,29 +2526,29 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="14" t="s">
         <v>115</v>
       </c>
       <c r="K41" s="1"/>
@@ -2594,27 +2570,27 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K42" s="1"/>
@@ -2636,25 +2612,25 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23" t="s">
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="1"/>
@@ -2676,25 +2652,25 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18" t="s">
+      <c r="E44" s="14"/>
+      <c r="F44" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18" t="s">
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="14" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="1"/>
@@ -2716,28 +2692,28 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="23" t="s">
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K45" s="29"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2756,28 +2732,28 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18" t="s">
+      <c r="E46" s="14"/>
+      <c r="F46" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18" t="s">
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K46" s="30"/>
+      <c r="K46" s="21"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2796,28 +2772,28 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="23" t="s">
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K47" s="29"/>
+      <c r="K47" s="20"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2836,28 +2812,28 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="s">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18" t="s">
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="J48" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K48" s="29"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2876,28 +2852,28 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18" t="s">
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K49" s="29"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2916,28 +2892,28 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18" t="s">
+      <c r="E50" s="14"/>
+      <c r="F50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18" t="s">
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K50" s="29"/>
+      <c r="K50" s="20"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2956,28 +2932,28 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18" t="s">
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18" t="s">
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="K51" s="30"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2996,28 +2972,28 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18" t="s">
+      <c r="E52" s="14"/>
+      <c r="F52" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18" t="s">
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K52" s="30"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3036,28 +3012,28 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18" t="s">
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18" t="s">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K53" s="30"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3076,28 +3052,28 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18" t="s">
+      <c r="E54" s="14"/>
+      <c r="F54" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="23" t="s">
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="J54" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="K54" s="30"/>
+      <c r="K54" s="21"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3116,28 +3092,28 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18" t="s">
+      <c r="E55" s="14"/>
+      <c r="F55" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18" t="s">
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="J55" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="K55" s="30"/>
+      <c r="K55" s="21"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3156,28 +3132,28 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18" t="s">
+      <c r="E56" s="14"/>
+      <c r="F56" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18" t="s">
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="J56" s="23" t="s">
+      <c r="J56" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="22" t="s">
         <v>148</v>
       </c>
       <c r="L56" s="1"/>
@@ -3198,25 +3174,25 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18" t="s">
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="J57" s="23" t="s">
+      <c r="J57" s="14" t="s">
         <v>151</v>
       </c>
       <c r="K57" s="1"/>
@@ -3238,25 +3214,25 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18" t="s">
+      <c r="E58" s="14"/>
+      <c r="F58" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18" t="s">
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="J58" s="14" t="s">
         <v>154</v>
       </c>
       <c r="K58" s="1"/>
@@ -3278,25 +3254,25 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18" t="s">
+      <c r="E59" s="14"/>
+      <c r="F59" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18" t="s">
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="J59" s="23" t="s">
+      <c r="J59" s="14" t="s">
         <v>157</v>
       </c>
       <c r="K59" s="1"/>
@@ -3318,25 +3294,25 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18" t="s">
+      <c r="E60" s="14"/>
+      <c r="F60" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18" t="s">
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J60" s="23" t="s">
+      <c r="J60" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K60" s="1"/>
@@ -3358,26 +3334,26 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J61" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="J61" s="23" t="s">
-        <v>162</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3398,15 +3374,27 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="B62" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -8996,7 +8984,34 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
+      <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
+    </row>
     <row r="263" ht="15.75" customHeight="1"/>
     <row r="264" ht="15.75" customHeight="1"/>
     <row r="265" ht="15.75" customHeight="1"/>
@@ -9736,8 +9751,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
